--- a/Data/사이언스페스티벌_데이터.xlsx
+++ b/Data/사이언스페스티벌_데이터.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Desktop\Projects\Daejeon_Science_Festival_Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93366B95-CD29-4B0F-A8DE-3803D9B06A5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="28035" windowHeight="9960"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,20 @@
     <sheet name="신문기사분석" sheetId="3" r:id="rId5"/>
     <sheet name="회귀분석" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="160">
   <si>
     <t>연도(회차)</t>
   </si>
@@ -2012,11 +2026,23 @@
     <t>Avg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>예산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사전홍보 수 (1주일, 1달) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학기관참여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -2238,9 +2264,6 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2268,6 +2291,9 @@
     <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2279,12 +2305,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -2318,7 +2347,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2442,6 +2470,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF5D-4F25-970E-B1606205A1DE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2463,6 +2496,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2502,7 +2536,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -2532,7 +2566,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2666,6 +2699,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20BA-40E8-BB09-F2244489CE74}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2687,6 +2725,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2726,7 +2765,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -2755,7 +2794,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2879,6 +2917,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28CE-4663-BF12-E0BB8294E058}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2900,6 +2943,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2939,7 +2983,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -2969,7 +3013,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3093,6 +3136,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A59-4204-AF87-8B702F817109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3114,6 +3162,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3169,7 +3218,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="차트 9"/>
+        <xdr:cNvPr id="10" name="차트 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3199,7 +3254,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="차트 10"/>
+        <xdr:cNvPr id="11" name="차트 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3229,7 +3290,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="차트 11"/>
+        <xdr:cNvPr id="12" name="차트 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3259,7 +3326,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="차트 12"/>
+        <xdr:cNvPr id="13" name="차트 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3320,7 +3393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3353,9 +3426,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3388,6 +3478,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3563,28 +3670,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="11" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="54.5" customWidth="1"/>
-    <col min="15" max="15" width="61" customWidth="1"/>
-    <col min="16" max="16" width="39.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" customWidth="1"/>
+    <col min="11" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="54.5" customWidth="1"/>
+    <col min="18" max="18" width="61" customWidth="1"/>
+    <col min="19" max="19" width="39.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3625,13 +3734,22 @@
         <v>146</v>
       </c>
       <c r="N1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3655,11 +3773,11 @@
         <f>F2+C2-1</f>
         <v>36758</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3687,7 +3805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3711,11 +3829,11 @@
         <f t="shared" si="1"/>
         <v>37486</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3745,11 +3863,11 @@
       <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3773,11 +3891,11 @@
         <f t="shared" si="1"/>
         <v>38209</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="132" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3804,11 +3922,11 @@
       <c r="I7" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="165" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="174" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3840,14 +3958,17 @@
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O8" t="s">
+      <c r="R8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3871,11 +3992,11 @@
         <f t="shared" si="1"/>
         <v>39313</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3899,11 +4020,11 @@
         <f t="shared" si="1"/>
         <v>39559</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="Q10" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="87" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3927,11 +4048,11 @@
         <f t="shared" si="1"/>
         <v>39915</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="132" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3952,11 +4073,11 @@
         <f t="shared" si="1"/>
         <v>40104</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="99" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3980,11 +4101,11 @@
         <f t="shared" si="1"/>
         <v>40293</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -4005,11 +4126,11 @@
         <f t="shared" si="1"/>
         <v>40461</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="Q14" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4033,11 +4154,11 @@
         <f t="shared" si="1"/>
         <v>40825</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="109.2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -4061,11 +4182,11 @@
         <f t="shared" si="1"/>
         <v>41210</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="Q16" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="313.2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4089,14 +4210,14 @@
         <f t="shared" si="1"/>
         <v>41497</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="Q17" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="R17" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4120,23 +4241,23 @@
         <f t="shared" si="1"/>
         <v>41957</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="Q18" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="R18" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="S18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="U18" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="370.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4160,14 +4281,14 @@
         <f t="shared" si="1"/>
         <v>42298</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="Q19" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="R19" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -4191,14 +4312,14 @@
         <f t="shared" si="1"/>
         <v>42668</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="Q20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="R20" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="231" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="243.6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4230,14 +4351,17 @@
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="R21" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="297" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="313.2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -4264,11 +4388,14 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="151.19999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
@@ -4298,26 +4425,28 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="R23" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N25" s="18"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4325,7 +4454,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4333,37 +4462,37 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -4371,7 +4500,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O23" r:id="rId1" display="http://www.daejonilbo.com/news/newsitem.asp?pk_no=1392705"/>
+    <hyperlink ref="R23" r:id="rId1" display="http://www.daejonilbo.com/news/newsitem.asp?pk_no=1392705" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4379,22 +4508,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4538,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4429,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4449,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4469,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4489,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4509,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4529,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4549,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4569,7 +4698,7 @@
         <v>188046</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4589,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4609,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4629,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -4649,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -4669,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4689,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -4709,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4729,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4749,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4769,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4789,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4809,7 +4938,7 @@
         <v>245338</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -4829,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -4849,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F24">
         <v>2001</v>
       </c>
@@ -4860,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F25">
         <v>2001</v>
       </c>
@@ -4871,87 +5000,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
         <v>36749</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>36750</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="20">
         <v>36751</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>36752</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="20">
         <v>36753</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="20">
         <v>36754</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="20">
         <v>36755</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="20">
         <v>36756</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="20">
         <v>36757</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="20">
         <v>36758</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="20">
         <v>37114</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="20">
         <v>37115</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="20">
         <v>37116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="20">
         <v>37117</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>37118</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="20">
         <v>37119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="20">
         <v>37120</v>
       </c>
@@ -4959,582 +5088,582 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="20">
         <v>37121</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="20">
         <v>37122</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="20">
         <v>37123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="20">
         <v>37477</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="20">
         <v>37478</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="20">
         <v>37479</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="20">
         <v>37480</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="20">
         <v>37481</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="20">
         <v>37482</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="20">
         <v>37483</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="20">
         <v>37484</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="20">
         <v>37485</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="20">
         <v>37486</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="20">
         <v>37840</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="20">
         <v>37841</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" s="20">
         <v>37842</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" s="20">
         <v>37843</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" s="20">
         <v>37844</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="20">
         <v>37846</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" s="20">
         <v>37847</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="20">
         <v>37848</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" s="20">
         <v>37849</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" s="20">
         <v>37850</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" s="20">
         <v>38199</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" s="20">
         <v>38200</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" s="20">
         <v>38201</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" s="20">
         <v>38202</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" s="20">
         <v>38203</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" s="20">
         <v>38204</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" s="20">
         <v>38205</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" s="20">
         <v>38206</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" s="20">
         <v>38207</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" s="20">
         <v>38208</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" s="20">
         <v>38209</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" s="20">
         <v>38576</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" s="20">
         <v>38577</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" s="20">
         <v>38578</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" s="20">
         <v>38579</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" s="20">
         <v>38580</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" s="20">
         <v>38581</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" s="20">
         <v>38582</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" s="20">
         <v>38583</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" s="20">
         <v>38584</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" s="20">
         <v>38585</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" s="20">
         <v>38940</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" s="20">
         <v>38941</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" s="20">
         <v>38942</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" s="20">
         <v>38943</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" s="20">
         <v>38944</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" s="20">
         <v>38945</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" s="20">
         <v>38946</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" s="20">
         <v>38947</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" s="20">
         <v>38948</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" s="20">
         <v>38949</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" s="20">
         <v>39309</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" s="20">
         <v>39310</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" s="20">
         <v>39311</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" s="20">
         <v>39312</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" s="20">
         <v>39313</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" s="20">
         <v>39557</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" s="20">
         <v>39558</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" s="20">
         <v>39559</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" s="20">
         <v>39913</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" s="20">
         <v>39914</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" s="20">
         <v>39915</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" s="20">
         <v>40095</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" s="20">
         <v>40096</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" s="20">
         <v>40097</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" s="20">
         <v>40098</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" s="20">
         <v>40099</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" s="20">
         <v>40100</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" s="20">
         <v>40101</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116" s="20">
         <v>40102</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117" s="20">
         <v>40103</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118" s="20">
         <v>40104</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119" s="20">
         <v>40291</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120" s="20">
         <v>40292</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" s="20">
         <v>40293</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" s="20">
         <v>40458</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" s="20">
         <v>40459</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" s="20">
         <v>40460</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" s="20">
         <v>40461</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" s="20">
         <v>40822</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127" s="20">
         <v>40823</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" s="20">
         <v>40824</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" s="20">
         <v>40825</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" s="20">
         <v>41208</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" s="20">
         <v>41209</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" s="20">
         <v>41210</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" s="20">
         <v>41495</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134" s="20">
         <v>41496</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135" s="20">
         <v>41497</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" s="20">
         <v>41955</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137" s="20">
         <v>41956</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138" s="20">
         <v>41957</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139" s="20">
         <v>42294</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140" s="20">
         <v>42295</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141" s="20">
         <v>42296</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142" s="20">
         <v>42297</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143" s="20">
         <v>42298</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144" s="20">
         <v>42665</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" s="20">
         <v>42666</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" s="20">
         <v>42667</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" s="20">
         <v>42668</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" s="20">
         <v>43029</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" s="20">
         <v>43030</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" s="20">
         <v>43031</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" s="20">
         <v>43032</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" s="20">
         <v>43392</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153" s="20">
         <v>43393</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" s="20">
         <v>43394</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" s="20">
         <v>43395</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" s="20">
         <v>43756</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" s="20">
         <v>43757</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" s="20">
         <v>43758</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" s="20">
         <v>43759</v>
       </c>
@@ -5546,20 +5675,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>148</v>
       </c>
@@ -5570,7 +5699,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="20">
         <v>36749</v>
       </c>
@@ -5578,7 +5707,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="20">
         <v>36750</v>
       </c>
@@ -5586,7 +5715,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="20">
         <v>36751</v>
       </c>
@@ -5594,7 +5723,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="20">
         <v>36752</v>
       </c>
@@ -5602,7 +5731,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="20">
         <v>36753</v>
       </c>
@@ -5610,7 +5739,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="20">
         <v>36754</v>
       </c>
@@ -5618,7 +5747,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>36755</v>
       </c>
@@ -5626,7 +5755,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <v>36756</v>
       </c>
@@ -5634,7 +5763,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>36757</v>
       </c>
@@ -5642,7 +5771,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>36758</v>
       </c>
@@ -5650,7 +5779,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <v>37114</v>
       </c>
@@ -5661,7 +5790,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>37115</v>
       </c>
@@ -5672,7 +5801,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>37116</v>
       </c>
@@ -5683,7 +5812,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="20">
         <v>37117</v>
       </c>
@@ -5695,7 +5824,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <v>37118</v>
       </c>
@@ -5707,7 +5836,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>37119</v>
       </c>
@@ -5719,7 +5848,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
         <v>37120</v>
       </c>
@@ -5731,7 +5860,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="20">
         <v>37121</v>
       </c>
@@ -5743,7 +5872,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="20">
         <v>37122</v>
       </c>
@@ -5755,7 +5884,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="20">
         <v>37123</v>
       </c>
@@ -5767,7 +5896,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="20">
         <v>37477</v>
       </c>
@@ -5775,7 +5904,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="20">
         <v>37478</v>
       </c>
@@ -5783,7 +5912,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="20">
         <v>37479</v>
       </c>
@@ -5791,7 +5920,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="20">
         <v>37480</v>
       </c>
@@ -5799,7 +5928,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>37481</v>
       </c>
@@ -5807,7 +5936,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
         <v>37482</v>
       </c>
@@ -5815,7 +5944,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>37483</v>
       </c>
@@ -5823,7 +5952,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="20">
         <v>37484</v>
       </c>
@@ -5831,7 +5960,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>37485</v>
       </c>
@@ -5839,7 +5968,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="20">
         <v>37486</v>
       </c>
@@ -5847,7 +5976,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="20">
         <v>37840</v>
       </c>
@@ -5855,7 +5984,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="20">
         <v>37841</v>
       </c>
@@ -5863,7 +5992,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="20">
         <v>37842</v>
       </c>
@@ -5871,7 +6000,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="20">
         <v>37843</v>
       </c>
@@ -5879,7 +6008,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="20">
         <v>37844</v>
       </c>
@@ -5887,7 +6016,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="20">
         <v>37846</v>
       </c>
@@ -5895,7 +6024,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="20">
         <v>37847</v>
       </c>
@@ -5903,7 +6032,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="20">
         <v>37848</v>
       </c>
@@ -5911,7 +6040,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="20">
         <v>37849</v>
       </c>
@@ -5919,7 +6048,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>37850</v>
       </c>
@@ -5927,7 +6056,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="20">
         <v>38199</v>
       </c>
@@ -5935,7 +6064,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="20">
         <v>38200</v>
       </c>
@@ -5943,7 +6072,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="20">
         <v>38201</v>
       </c>
@@ -5951,7 +6080,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="20">
         <v>38202</v>
       </c>
@@ -5959,7 +6088,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="20">
         <v>38203</v>
       </c>
@@ -5967,7 +6096,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="20">
         <v>38204</v>
       </c>
@@ -5975,7 +6104,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="20">
         <v>38205</v>
       </c>
@@ -5983,7 +6112,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="20">
         <v>38206</v>
       </c>
@@ -5991,7 +6120,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="20">
         <v>38207</v>
       </c>
@@ -5999,7 +6128,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="20">
         <v>38208</v>
       </c>
@@ -6007,7 +6136,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="20">
         <v>38209</v>
       </c>
@@ -6015,7 +6144,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="20">
         <v>38576</v>
       </c>
@@ -6023,7 +6152,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="20">
         <v>38577</v>
       </c>
@@ -6031,7 +6160,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="20">
         <v>38578</v>
       </c>
@@ -6039,7 +6168,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="20">
         <v>38579</v>
       </c>
@@ -6047,7 +6176,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="20">
         <v>38580</v>
       </c>
@@ -6055,7 +6184,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="20">
         <v>38581</v>
       </c>
@@ -6063,7 +6192,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="20">
         <v>38582</v>
       </c>
@@ -6071,7 +6200,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="20">
         <v>38583</v>
       </c>
@@ -6079,7 +6208,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="20">
         <v>38584</v>
       </c>
@@ -6087,7 +6216,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="20">
         <v>38585</v>
       </c>
@@ -6095,7 +6224,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="20">
         <v>38940</v>
       </c>
@@ -6103,7 +6232,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="20">
         <v>38941</v>
       </c>
@@ -6111,7 +6240,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="20">
         <v>38942</v>
       </c>
@@ -6119,7 +6248,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="20">
         <v>38943</v>
       </c>
@@ -6127,7 +6256,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="20">
         <v>38944</v>
       </c>
@@ -6135,7 +6264,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="20">
         <v>38945</v>
       </c>
@@ -6143,7 +6272,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="20">
         <v>38946</v>
       </c>
@@ -6151,7 +6280,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="20">
         <v>38947</v>
       </c>
@@ -6159,7 +6288,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="20">
         <v>38948</v>
       </c>
@@ -6167,7 +6296,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="20">
         <v>38949</v>
       </c>
@@ -6175,7 +6304,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="20">
         <v>39309</v>
       </c>
@@ -6183,7 +6312,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="20">
         <v>39310</v>
       </c>
@@ -6191,7 +6320,7 @@
         <v>39050.199999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="20">
         <v>39311</v>
       </c>
@@ -6199,7 +6328,7 @@
         <v>39050.199999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="20">
         <v>39312</v>
       </c>
@@ -6207,7 +6336,7 @@
         <v>39050.199999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="20">
         <v>39313</v>
       </c>
@@ -6215,7 +6344,7 @@
         <v>39050.199999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="20">
         <v>39557</v>
       </c>
@@ -6223,7 +6352,7 @@
         <v>39050.199999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="20">
         <v>39558</v>
       </c>
@@ -6231,7 +6360,7 @@
         <v>39050.199999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="20">
         <v>39559</v>
       </c>
@@ -6239,7 +6368,7 @@
         <v>39050.199999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="20">
         <v>39913</v>
       </c>
@@ -6247,7 +6376,7 @@
         <v>27097</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="20">
         <v>39914</v>
       </c>
@@ -6255,7 +6384,7 @@
         <v>27097</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="20">
         <v>39915</v>
       </c>
@@ -6263,7 +6392,7 @@
         <v>27097</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="20">
         <v>40095</v>
       </c>
@@ -6271,7 +6400,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="20">
         <v>40096</v>
       </c>
@@ -6279,7 +6408,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="20">
         <v>40097</v>
       </c>
@@ -6287,7 +6416,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="20">
         <v>40098</v>
       </c>
@@ -6295,7 +6424,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="20">
         <v>40099</v>
       </c>
@@ -6303,7 +6432,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="20">
         <v>40100</v>
       </c>
@@ -6311,7 +6440,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="20">
         <v>40101</v>
       </c>
@@ -6319,7 +6448,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="20">
         <v>40102</v>
       </c>
@@ -6327,7 +6456,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="20">
         <v>40103</v>
       </c>
@@ -6335,7 +6464,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="20">
         <v>40104</v>
       </c>
@@ -6343,7 +6472,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="20">
         <v>40291</v>
       </c>
@@ -6351,7 +6480,7 @@
         <v>43333.333330000001</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="20">
         <v>40292</v>
       </c>
@@ -6359,7 +6488,7 @@
         <v>43333.333330000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="20">
         <v>40293</v>
       </c>
@@ -6367,7 +6496,7 @@
         <v>43333.333330000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="20">
         <v>40458</v>
       </c>
@@ -6375,7 +6504,7 @@
         <v>29482.25</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="20">
         <v>40459</v>
       </c>
@@ -6383,7 +6512,7 @@
         <v>29482.25</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="20">
         <v>40460</v>
       </c>
@@ -6391,7 +6520,7 @@
         <v>29482.25</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="20">
         <v>40461</v>
       </c>
@@ -6399,7 +6528,7 @@
         <v>29482.25</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="20">
         <v>40822</v>
       </c>
@@ -6407,7 +6536,7 @@
         <v>38256</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="20">
         <v>40823</v>
       </c>
@@ -6415,7 +6544,7 @@
         <v>38256</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="20">
         <v>40824</v>
       </c>
@@ -6423,7 +6552,7 @@
         <v>38256</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="20">
         <v>40825</v>
       </c>
@@ -6431,7 +6560,7 @@
         <v>38256</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="20">
         <v>41208</v>
       </c>
@@ -6439,7 +6568,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="20">
         <v>41209</v>
       </c>
@@ -6447,7 +6576,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="20">
         <v>41210</v>
       </c>
@@ -6455,7 +6584,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="20">
         <v>41495</v>
       </c>
@@ -6463,7 +6592,7 @@
         <v>50626</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="20">
         <v>41496</v>
       </c>
@@ -6471,7 +6600,7 @@
         <v>50626</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="20">
         <v>41497</v>
       </c>
@@ -6479,7 +6608,7 @@
         <v>50626</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="20">
         <v>41955</v>
       </c>
@@ -6487,7 +6616,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="20">
         <v>41956</v>
       </c>
@@ -6495,7 +6624,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="20">
         <v>41957</v>
       </c>
@@ -6503,7 +6632,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="20">
         <v>42294</v>
       </c>
@@ -6511,7 +6640,7 @@
         <v>33560</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="20">
         <v>42295</v>
       </c>
@@ -6519,7 +6648,7 @@
         <v>33560</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="20">
         <v>42296</v>
       </c>
@@ -6527,7 +6656,7 @@
         <v>33560</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="20">
         <v>42297</v>
       </c>
@@ -6535,7 +6664,7 @@
         <v>33560</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="20">
         <v>42298</v>
       </c>
@@ -6543,7 +6672,7 @@
         <v>33560</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="20">
         <v>42665</v>
       </c>
@@ -6551,7 +6680,7 @@
         <v>42552.5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="20">
         <v>42666</v>
       </c>
@@ -6559,7 +6688,7 @@
         <v>42552.5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="20">
         <v>42667</v>
       </c>
@@ -6567,7 +6696,7 @@
         <v>42552.5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="20">
         <v>42668</v>
       </c>
@@ -6575,7 +6704,7 @@
         <v>42552.5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="20">
         <v>43029</v>
       </c>
@@ -6583,7 +6712,7 @@
         <v>55716</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="20">
         <v>43030</v>
       </c>
@@ -6591,7 +6720,7 @@
         <v>55716</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="20">
         <v>43031</v>
       </c>
@@ -6599,7 +6728,7 @@
         <v>55716</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="20">
         <v>43032</v>
       </c>
@@ -6607,7 +6736,7 @@
         <v>55716</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="20">
         <v>43392</v>
       </c>
@@ -6615,7 +6744,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="20">
         <v>43393</v>
       </c>
@@ -6623,7 +6752,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="20">
         <v>43394</v>
       </c>
@@ -6631,7 +6760,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="20">
         <v>43395</v>
       </c>
@@ -6639,7 +6768,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="20">
         <v>43756</v>
       </c>
@@ -6647,7 +6776,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="20">
         <v>43757</v>
       </c>
@@ -6655,7 +6784,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="20">
         <v>43758</v>
       </c>
@@ -6663,7 +6792,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="20">
         <v>43759</v>
       </c>
@@ -6671,43 +6800,43 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C154" s="29">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C154" s="28">
         <v>50626</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" s="25">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C155" s="24">
         <v>16000</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C156" s="25">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C156" s="24">
         <v>16000</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C157" s="25">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C157" s="24">
         <v>16000</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C158" s="25">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C158" s="24">
         <v>16000</v>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="25">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C159" s="24">
         <v>16000</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C160" s="25">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C160" s="24">
         <v>16000</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="25">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C161" s="24">
         <v>16000</v>
       </c>
     </row>
@@ -6718,19 +6847,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -6741,7 +6870,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -6752,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -6763,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -6774,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -6785,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -6796,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -6807,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -6818,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -6829,7 +6958,7 @@
         <v>188046</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -6840,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -6851,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -6862,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -6873,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -6884,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -6895,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2001</v>
       </c>
@@ -6906,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2001</v>
       </c>
@@ -6917,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2001</v>
       </c>
@@ -6928,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2001</v>
       </c>
@@ -6939,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2001</v>
       </c>
@@ -6950,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2001</v>
       </c>
@@ -6961,7 +7090,7 @@
         <v>245338</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2001</v>
       </c>
@@ -6972,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2001</v>
       </c>
@@ -6983,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -6994,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2001</v>
       </c>
@@ -7005,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>2002</v>
       </c>
@@ -7016,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -7027,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2002</v>
       </c>
@@ -7038,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2002</v>
       </c>
@@ -7049,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>2002</v>
       </c>
@@ -7060,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2002</v>
       </c>
@@ -7071,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>2002</v>
       </c>
@@ -7082,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>2002</v>
       </c>
@@ -7093,7 +7222,7 @@
         <v>209510</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -7104,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>2002</v>
       </c>
@@ -7115,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>2002</v>
       </c>
@@ -7126,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -7137,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>2003</v>
       </c>
@@ -7148,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>2003</v>
       </c>
@@ -7159,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>2003</v>
       </c>
@@ -7170,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>2003</v>
       </c>
@@ -7181,7 +7310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>2003</v>
       </c>
@@ -7192,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>2003</v>
       </c>
@@ -7203,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>2003</v>
       </c>
@@ -7214,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>2003</v>
       </c>
@@ -7225,7 +7354,7 @@
         <v>13748.63636</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>2003</v>
       </c>
@@ -7236,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>2003</v>
       </c>
@@ -7247,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>2003</v>
       </c>
@@ -7258,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>2003</v>
       </c>
@@ -7269,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>2004</v>
       </c>
@@ -7280,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>2004</v>
       </c>
@@ -7291,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>2004</v>
       </c>
@@ -7302,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>2004</v>
       </c>
@@ -7313,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>2004</v>
       </c>
@@ -7324,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>2004</v>
       </c>
@@ -7335,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>2004</v>
       </c>
@@ -7346,7 +7475,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>2004</v>
       </c>
@@ -7357,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>2004</v>
       </c>
@@ -7368,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2004</v>
       </c>
@@ -7379,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>2004</v>
       </c>
@@ -7390,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>2004</v>
       </c>
@@ -7401,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>2005</v>
       </c>
@@ -7412,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>2005</v>
       </c>
@@ -7423,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>2005</v>
       </c>
@@ -7434,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>2005</v>
       </c>
@@ -7445,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>2005</v>
       </c>
@@ -7456,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>2005</v>
       </c>
@@ -7467,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>2005</v>
       </c>
@@ -7478,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>2005</v>
       </c>
@@ -7489,7 +7618,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>2005</v>
       </c>
@@ -7500,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>2005</v>
       </c>
@@ -7511,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>2005</v>
       </c>
@@ -7522,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>2005</v>
       </c>
@@ -7533,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>2006</v>
       </c>
@@ -7544,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>2006</v>
       </c>
@@ -7555,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>2006</v>
       </c>
@@ -7566,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>2006</v>
       </c>
@@ -7577,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>2006</v>
       </c>
@@ -7588,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>2006</v>
       </c>
@@ -7599,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>2006</v>
       </c>
@@ -7610,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>2006</v>
       </c>
@@ -7621,7 +7750,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>2006</v>
       </c>
@@ -7632,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>2006</v>
       </c>
@@ -7643,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>2006</v>
       </c>
@@ -7654,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>2006</v>
       </c>
@@ -7665,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>2007</v>
       </c>
@@ -7676,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>2007</v>
       </c>
@@ -7687,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>2007</v>
       </c>
@@ -7698,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>2007</v>
       </c>
@@ -7709,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>2007</v>
       </c>
@@ -7720,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>2007</v>
       </c>
@@ -7731,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>2007</v>
       </c>
@@ -7742,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>2007</v>
       </c>
@@ -7753,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>2007</v>
       </c>
@@ -7764,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>2007</v>
       </c>
@@ -7775,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>2007</v>
       </c>
@@ -7785,23 +7914,23 @@
       <c r="C96">
         <v>0</v>
       </c>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="23"/>
-      <c r="R96" s="23"/>
-      <c r="S96" s="23"/>
-      <c r="T96" s="23"/>
-      <c r="U96" s="23"/>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="22"/>
+      <c r="R96" s="22"/>
+      <c r="S96" s="22"/>
+      <c r="T96" s="22"/>
+      <c r="U96" s="22"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>2007</v>
       </c>
@@ -7811,53 +7940,53 @@
       <c r="C97">
         <v>0</v>
       </c>
-      <c r="G97" s="24">
+      <c r="G97" s="23">
         <v>38940</v>
       </c>
-      <c r="H97" s="25">
+      <c r="H97" s="24">
         <v>2006</v>
       </c>
-      <c r="I97" s="26">
+      <c r="I97" s="25">
         <v>317012</v>
       </c>
-      <c r="J97" s="25">
+      <c r="J97" s="24">
         <v>10</v>
       </c>
-      <c r="K97" s="25">
+      <c r="K97" s="24">
         <v>31701.200000000001</v>
       </c>
-      <c r="L97" s="25">
+      <c r="L97" s="24">
         <v>86</v>
       </c>
-      <c r="M97" s="27">
+      <c r="M97" s="26">
         <v>38940</v>
       </c>
-      <c r="N97" s="27">
+      <c r="N97" s="26">
         <v>38949</v>
       </c>
-      <c r="O97" s="25" t="s">
+      <c r="O97" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="P97" s="25" t="s">
+      <c r="P97" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q97" s="25" t="s">
+      <c r="Q97" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="R97" s="25">
+      <c r="R97" s="24">
         <v>0.106239</v>
       </c>
-      <c r="S97" s="25">
+      <c r="S97" s="24">
         <v>8</v>
       </c>
-      <c r="T97" s="25">
+      <c r="T97" s="24">
         <v>11</v>
       </c>
-      <c r="U97" s="25">
+      <c r="U97" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>2008</v>
       </c>
@@ -7867,53 +7996,53 @@
       <c r="C98">
         <v>0</v>
       </c>
-      <c r="G98" s="28">
+      <c r="G98" s="27">
         <v>39309</v>
       </c>
-      <c r="H98" s="29">
+      <c r="H98" s="28">
         <v>2007</v>
       </c>
-      <c r="I98" s="30">
+      <c r="I98" s="29">
         <v>195251</v>
       </c>
-      <c r="J98" s="29">
+      <c r="J98" s="28">
         <v>5</v>
       </c>
-      <c r="K98" s="29">
+      <c r="K98" s="28">
         <v>39050.199999999997</v>
       </c>
-      <c r="L98" s="29">
+      <c r="L98" s="28">
         <v>79</v>
       </c>
-      <c r="M98" s="31">
+      <c r="M98" s="30">
         <v>39309</v>
       </c>
-      <c r="N98" s="31">
+      <c r="N98" s="30">
         <v>39313</v>
       </c>
-      <c r="O98" s="29" t="s">
+      <c r="O98" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="P98" s="29" t="s">
+      <c r="P98" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="Q98" s="29" t="s">
+      <c r="Q98" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="R98" s="29">
+      <c r="R98" s="28">
         <v>0.188194</v>
       </c>
-      <c r="S98" s="29">
+      <c r="S98" s="28">
         <v>8</v>
       </c>
-      <c r="T98" s="29">
+      <c r="T98" s="28">
         <v>15</v>
       </c>
-      <c r="U98" s="29">
+      <c r="U98" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>2008</v>
       </c>
@@ -7923,53 +8052,53 @@
       <c r="C99">
         <v>0</v>
       </c>
-      <c r="G99" s="24">
+      <c r="G99" s="23">
         <v>39557</v>
       </c>
-      <c r="H99" s="25">
+      <c r="H99" s="24">
         <v>2008</v>
       </c>
-      <c r="I99" s="26">
+      <c r="I99" s="25">
         <v>81291</v>
       </c>
-      <c r="J99" s="25">
+      <c r="J99" s="24">
         <v>3</v>
       </c>
-      <c r="K99" s="25">
+      <c r="K99" s="24">
         <v>27097</v>
       </c>
-      <c r="L99" s="25">
+      <c r="L99" s="24">
         <v>50</v>
       </c>
-      <c r="M99" s="27">
+      <c r="M99" s="26">
         <v>39557</v>
       </c>
-      <c r="N99" s="27">
+      <c r="N99" s="26">
         <v>43576</v>
       </c>
-      <c r="O99" s="25" t="s">
+      <c r="O99" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P99" s="25" t="s">
+      <c r="P99" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q99" s="25" t="s">
+      <c r="Q99" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="R99" s="25">
+      <c r="R99" s="24">
         <v>-0.44112600000000002</v>
       </c>
-      <c r="S99" s="25">
+      <c r="S99" s="24">
         <v>4</v>
       </c>
-      <c r="T99" s="25">
+      <c r="T99" s="24">
         <v>19</v>
       </c>
-      <c r="U99" s="25">
+      <c r="U99" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>2008</v>
       </c>
@@ -7979,53 +8108,53 @@
       <c r="C100">
         <v>0</v>
       </c>
-      <c r="G100" s="28">
+      <c r="G100" s="27">
         <v>39913</v>
       </c>
-      <c r="H100" s="29">
+      <c r="H100" s="28">
         <v>2009</v>
       </c>
-      <c r="I100" s="30">
+      <c r="I100" s="29">
         <v>135169</v>
       </c>
-      <c r="J100" s="29">
+      <c r="J100" s="28">
         <v>3</v>
       </c>
-      <c r="K100" s="29">
+      <c r="K100" s="28">
         <v>45056.333330000001</v>
       </c>
-      <c r="L100" s="29">
+      <c r="L100" s="28">
         <v>60</v>
       </c>
-      <c r="M100" s="31">
+      <c r="M100" s="30">
         <v>39913</v>
       </c>
-      <c r="N100" s="31">
+      <c r="N100" s="30">
         <v>39915</v>
       </c>
-      <c r="O100" s="29" t="s">
+      <c r="O100" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="P100" s="29" t="s">
+      <c r="P100" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="Q100" s="29" t="s">
+      <c r="Q100" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="R100" s="29">
+      <c r="R100" s="28">
         <v>0.39859699999999998</v>
       </c>
-      <c r="S100" s="29">
+      <c r="S100" s="28">
         <v>4</v>
       </c>
-      <c r="T100" s="29">
+      <c r="T100" s="28">
         <v>10</v>
       </c>
-      <c r="U100" s="29">
+      <c r="U100" s="28">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>2008</v>
       </c>
@@ -8035,53 +8164,53 @@
       <c r="C101">
         <v>81291</v>
       </c>
-      <c r="G101" s="24">
+      <c r="G101" s="23">
         <v>40095</v>
       </c>
-      <c r="H101" s="25">
+      <c r="H101" s="24">
         <v>2009</v>
       </c>
-      <c r="I101" s="26">
+      <c r="I101" s="25">
         <v>278189</v>
       </c>
-      <c r="J101" s="25">
+      <c r="J101" s="24">
         <v>10</v>
       </c>
-      <c r="K101" s="25">
+      <c r="K101" s="24">
         <v>27818.9</v>
       </c>
-      <c r="L101" s="25" t="s">
+      <c r="L101" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M101" s="27">
+      <c r="M101" s="26">
         <v>40095</v>
       </c>
-      <c r="N101" s="27">
+      <c r="N101" s="26">
         <v>40104</v>
       </c>
-      <c r="O101" s="25" t="s">
+      <c r="O101" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P101" s="25" t="s">
+      <c r="P101" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q101" s="25" t="s">
+      <c r="Q101" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="R101" s="25">
+      <c r="R101" s="24">
         <v>-0.61963000000000001</v>
       </c>
-      <c r="S101" s="25">
+      <c r="S101" s="24">
         <v>10</v>
       </c>
-      <c r="T101" s="25">
+      <c r="T101" s="24">
         <v>9</v>
       </c>
-      <c r="U101" s="25">
+      <c r="U101" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>2008</v>
       </c>
@@ -8091,53 +8220,53 @@
       <c r="C102">
         <v>0</v>
       </c>
-      <c r="G102" s="28">
+      <c r="G102" s="27">
         <v>40291</v>
       </c>
-      <c r="H102" s="29">
+      <c r="H102" s="28">
         <v>2010</v>
       </c>
-      <c r="I102" s="30">
+      <c r="I102" s="29">
         <v>130000</v>
       </c>
-      <c r="J102" s="29">
+      <c r="J102" s="28">
         <v>3</v>
       </c>
-      <c r="K102" s="29">
+      <c r="K102" s="28">
         <v>43333.333330000001</v>
       </c>
-      <c r="L102" s="29">
+      <c r="L102" s="28">
         <v>70</v>
       </c>
-      <c r="M102" s="31">
+      <c r="M102" s="30">
         <v>40291</v>
       </c>
-      <c r="N102" s="31">
+      <c r="N102" s="30">
         <v>40293</v>
       </c>
-      <c r="O102" s="29" t="s">
+      <c r="O102" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="P102" s="29" t="s">
+      <c r="P102" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="Q102" s="29" t="s">
+      <c r="Q102" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="R102" s="29">
+      <c r="R102" s="28">
         <v>0.35802499999999998</v>
       </c>
-      <c r="S102" s="29">
+      <c r="S102" s="28">
         <v>4</v>
       </c>
-      <c r="T102" s="29">
+      <c r="T102" s="28">
         <v>23</v>
       </c>
-      <c r="U102" s="29">
+      <c r="U102" s="28">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>2008</v>
       </c>
@@ -8147,53 +8276,53 @@
       <c r="C103">
         <v>0</v>
       </c>
-      <c r="G103" s="24">
+      <c r="G103" s="23">
         <v>40458</v>
       </c>
-      <c r="H103" s="25">
+      <c r="H103" s="24">
         <v>2010</v>
       </c>
-      <c r="I103" s="26">
+      <c r="I103" s="25">
         <v>117929</v>
       </c>
-      <c r="J103" s="25">
+      <c r="J103" s="24">
         <v>4</v>
       </c>
-      <c r="K103" s="25">
+      <c r="K103" s="24">
         <v>29482.25</v>
       </c>
-      <c r="L103" s="25" t="s">
+      <c r="L103" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M103" s="27">
+      <c r="M103" s="26">
         <v>40458</v>
       </c>
-      <c r="N103" s="27">
+      <c r="N103" s="26">
         <v>40461</v>
       </c>
-      <c r="O103" s="25" t="s">
+      <c r="O103" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P103" s="25" t="s">
+      <c r="P103" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q103" s="25" t="s">
+      <c r="Q103" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="R103" s="25">
+      <c r="R103" s="24">
         <v>-0.46981099999999998</v>
       </c>
-      <c r="S103" s="25">
+      <c r="S103" s="24">
         <v>10</v>
       </c>
-      <c r="T103" s="25">
+      <c r="T103" s="24">
         <v>7</v>
       </c>
-      <c r="U103" s="25">
+      <c r="U103" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>2008</v>
       </c>
@@ -8203,53 +8332,53 @@
       <c r="C104">
         <v>0</v>
       </c>
-      <c r="G104" s="28">
+      <c r="G104" s="27">
         <v>40822</v>
       </c>
-      <c r="H104" s="29">
+      <c r="H104" s="28">
         <v>2011</v>
       </c>
-      <c r="I104" s="30">
+      <c r="I104" s="29">
         <v>153024</v>
       </c>
-      <c r="J104" s="29">
+      <c r="J104" s="28">
         <v>4</v>
       </c>
-      <c r="K104" s="29">
+      <c r="K104" s="28">
         <v>38256</v>
       </c>
-      <c r="L104" s="29">
+      <c r="L104" s="28">
         <v>72</v>
       </c>
-      <c r="M104" s="31">
+      <c r="M104" s="30">
         <v>40822</v>
       </c>
-      <c r="N104" s="31">
+      <c r="N104" s="30">
         <v>40825</v>
       </c>
-      <c r="O104" s="29" t="s">
+      <c r="O104" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="P104" s="29" t="s">
+      <c r="P104" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="Q104" s="29" t="s">
+      <c r="Q104" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="R104" s="29">
+      <c r="R104" s="28">
         <v>0.22934299999999999</v>
       </c>
-      <c r="S104" s="29">
+      <c r="S104" s="28">
         <v>10</v>
       </c>
-      <c r="T104" s="29">
+      <c r="T104" s="28">
         <v>6</v>
       </c>
-      <c r="U104" s="29">
+      <c r="U104" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>2008</v>
       </c>
@@ -8259,53 +8388,53 @@
       <c r="C105">
         <v>0</v>
       </c>
-      <c r="G105" s="24">
+      <c r="G105" s="23">
         <v>41208</v>
       </c>
-      <c r="H105" s="25">
+      <c r="H105" s="24">
         <v>2012</v>
       </c>
-      <c r="I105" s="26">
+      <c r="I105" s="25">
         <v>84252</v>
       </c>
-      <c r="J105" s="25">
+      <c r="J105" s="24">
         <v>3</v>
       </c>
-      <c r="K105" s="25">
+      <c r="K105" s="24">
         <v>28084</v>
       </c>
-      <c r="L105" s="25">
+      <c r="L105" s="24">
         <v>99</v>
       </c>
-      <c r="M105" s="27">
+      <c r="M105" s="26">
         <v>41208</v>
       </c>
-      <c r="N105" s="27">
+      <c r="N105" s="26">
         <v>41210</v>
       </c>
-      <c r="O105" s="25" t="s">
+      <c r="O105" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P105" s="25" t="s">
+      <c r="P105" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q105" s="25" t="s">
+      <c r="Q105" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="R105" s="25">
+      <c r="R105" s="24">
         <v>-0.36219899999999999</v>
       </c>
-      <c r="S105" s="25">
+      <c r="S105" s="24">
         <v>10</v>
       </c>
-      <c r="T105" s="25">
+      <c r="T105" s="24">
         <v>26</v>
       </c>
-      <c r="U105" s="25">
+      <c r="U105" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>2008</v>
       </c>
@@ -8315,53 +8444,53 @@
       <c r="C106">
         <v>0</v>
       </c>
-      <c r="G106" s="28">
+      <c r="G106" s="27">
         <v>41495</v>
       </c>
-      <c r="H106" s="29">
+      <c r="H106" s="28">
         <v>2013</v>
       </c>
-      <c r="I106" s="30">
+      <c r="I106" s="29">
         <v>151878</v>
       </c>
-      <c r="J106" s="29">
+      <c r="J106" s="28">
         <v>3</v>
       </c>
-      <c r="K106" s="29">
+      <c r="K106" s="28">
         <v>50626</v>
       </c>
-      <c r="L106" s="29">
+      <c r="L106" s="28">
         <v>209</v>
       </c>
-      <c r="M106" s="31">
+      <c r="M106" s="30">
         <v>41495</v>
       </c>
-      <c r="N106" s="31">
+      <c r="N106" s="30">
         <v>41497</v>
       </c>
-      <c r="O106" s="29" t="s">
+      <c r="O106" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="P106" s="29" t="s">
+      <c r="P106" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="Q106" s="29" t="s">
+      <c r="Q106" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="R106" s="29">
+      <c r="R106" s="28">
         <v>0.44526500000000002</v>
       </c>
-      <c r="S106" s="29">
+      <c r="S106" s="28">
         <v>8</v>
       </c>
-      <c r="T106" s="29">
+      <c r="T106" s="28">
         <v>9</v>
       </c>
-      <c r="U106" s="29">
+      <c r="U106" s="28">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>2008</v>
       </c>
@@ -8371,53 +8500,53 @@
       <c r="C107">
         <v>0</v>
       </c>
-      <c r="G107" s="24">
+      <c r="G107" s="23">
         <v>41955</v>
       </c>
-      <c r="H107" s="25">
+      <c r="H107" s="24">
         <v>2014</v>
       </c>
-      <c r="I107" s="26">
+      <c r="I107" s="25">
         <v>48000</v>
       </c>
-      <c r="J107" s="25">
+      <c r="J107" s="24">
         <v>3</v>
       </c>
-      <c r="K107" s="25">
+      <c r="K107" s="24">
         <v>16000</v>
       </c>
-      <c r="L107" s="25">
+      <c r="L107" s="24">
         <v>447</v>
       </c>
-      <c r="M107" s="27">
+      <c r="M107" s="26">
         <v>41955</v>
       </c>
-      <c r="N107" s="27">
+      <c r="N107" s="26">
         <v>41957</v>
       </c>
-      <c r="O107" s="25" t="s">
+      <c r="O107" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P107" s="25" t="s">
+      <c r="P107" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q107" s="25" t="s">
+      <c r="Q107" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="R107" s="25">
+      <c r="R107" s="24">
         <v>-2.1641249999999999</v>
       </c>
-      <c r="S107" s="25">
+      <c r="S107" s="24">
         <v>11</v>
       </c>
-      <c r="T107" s="25">
+      <c r="T107" s="24">
         <v>12</v>
       </c>
-      <c r="U107" s="25">
+      <c r="U107" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>2008</v>
       </c>
@@ -8427,53 +8556,53 @@
       <c r="C108">
         <v>0</v>
       </c>
-      <c r="G108" s="28">
+      <c r="G108" s="27">
         <v>42294</v>
       </c>
-      <c r="H108" s="29">
+      <c r="H108" s="28">
         <v>2015</v>
       </c>
-      <c r="I108" s="30">
+      <c r="I108" s="29">
         <v>167800</v>
       </c>
-      <c r="J108" s="29">
+      <c r="J108" s="28">
         <v>5</v>
       </c>
-      <c r="K108" s="29">
+      <c r="K108" s="28">
         <v>33560</v>
       </c>
-      <c r="L108" s="29">
+      <c r="L108" s="28">
         <v>803</v>
       </c>
-      <c r="M108" s="31">
+      <c r="M108" s="30">
         <v>42294</v>
       </c>
-      <c r="N108" s="31">
+      <c r="N108" s="30">
         <v>42298</v>
       </c>
-      <c r="O108" s="29" t="s">
+      <c r="O108" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="P108" s="29" t="s">
+      <c r="P108" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="Q108" s="29" t="s">
+      <c r="Q108" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="R108" s="29">
+      <c r="R108" s="28">
         <v>0.52324199999999998</v>
       </c>
-      <c r="S108" s="29">
+      <c r="S108" s="28">
         <v>10</v>
       </c>
-      <c r="T108" s="29">
+      <c r="T108" s="28">
         <v>17</v>
       </c>
-      <c r="U108" s="29">
+      <c r="U108" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>2008</v>
       </c>
@@ -8483,53 +8612,53 @@
       <c r="C109">
         <v>0</v>
       </c>
-      <c r="G109" s="24">
+      <c r="G109" s="23">
         <v>42665</v>
       </c>
-      <c r="H109" s="25">
+      <c r="H109" s="24">
         <v>2016</v>
       </c>
-      <c r="I109" s="26">
+      <c r="I109" s="25">
         <v>170210</v>
       </c>
-      <c r="J109" s="25">
+      <c r="J109" s="24">
         <v>4</v>
       </c>
-      <c r="K109" s="25">
+      <c r="K109" s="24">
         <v>42552.5</v>
       </c>
-      <c r="L109" s="25">
+      <c r="L109" s="24">
         <v>611</v>
       </c>
-      <c r="M109" s="27">
+      <c r="M109" s="26">
         <v>42665</v>
       </c>
-      <c r="N109" s="27">
+      <c r="N109" s="26">
         <v>42668</v>
       </c>
-      <c r="O109" s="25" t="s">
+      <c r="O109" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P109" s="25" t="s">
+      <c r="P109" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q109" s="25" t="s">
+      <c r="Q109" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="R109" s="25">
+      <c r="R109" s="24">
         <v>0.21132699999999999</v>
       </c>
-      <c r="S109" s="25">
+      <c r="S109" s="24">
         <v>10</v>
       </c>
-      <c r="T109" s="25">
+      <c r="T109" s="24">
         <v>22</v>
       </c>
-      <c r="U109" s="25">
+      <c r="U109" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>2009</v>
       </c>
@@ -8539,53 +8668,53 @@
       <c r="C110">
         <v>0</v>
       </c>
-      <c r="G110" s="28">
+      <c r="G110" s="27">
         <v>43029</v>
       </c>
-      <c r="H110" s="29">
+      <c r="H110" s="28">
         <v>2017</v>
       </c>
-      <c r="I110" s="30">
+      <c r="I110" s="29">
         <v>222864</v>
       </c>
-      <c r="J110" s="29">
+      <c r="J110" s="28">
         <v>4</v>
       </c>
-      <c r="K110" s="29">
+      <c r="K110" s="28">
         <v>55716</v>
       </c>
-      <c r="L110" s="29">
+      <c r="L110" s="28">
         <v>430</v>
       </c>
-      <c r="M110" s="31">
+      <c r="M110" s="30">
         <v>43029</v>
       </c>
-      <c r="N110" s="31">
+      <c r="N110" s="30">
         <v>43032</v>
       </c>
-      <c r="O110" s="29" t="s">
+      <c r="O110" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="P110" s="29" t="s">
+      <c r="P110" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="Q110" s="29" t="s">
+      <c r="Q110" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="R110" s="29">
+      <c r="R110" s="28">
         <v>0.236261</v>
       </c>
-      <c r="S110" s="29">
+      <c r="S110" s="28">
         <v>10</v>
       </c>
-      <c r="T110" s="29">
+      <c r="T110" s="28">
         <v>21</v>
       </c>
-      <c r="U110" s="29">
+      <c r="U110" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>2009</v>
       </c>
@@ -8595,53 +8724,53 @@
       <c r="C111">
         <v>0</v>
       </c>
-      <c r="G111" s="24">
+      <c r="G111" s="23">
         <v>43392</v>
       </c>
-      <c r="H111" s="25">
+      <c r="H111" s="24">
         <v>2018</v>
       </c>
-      <c r="I111" s="26">
+      <c r="I111" s="25">
         <v>230000</v>
       </c>
-      <c r="J111" s="25">
+      <c r="J111" s="24">
         <v>4</v>
       </c>
-      <c r="K111" s="25">
+      <c r="K111" s="24">
         <v>57500</v>
       </c>
-      <c r="L111" s="25">
+      <c r="L111" s="24">
         <v>355</v>
       </c>
-      <c r="M111" s="27">
+      <c r="M111" s="26">
         <v>43392</v>
       </c>
-      <c r="N111" s="27">
+      <c r="N111" s="26">
         <v>43395</v>
       </c>
-      <c r="O111" s="25" t="s">
+      <c r="O111" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P111" s="25" t="s">
+      <c r="P111" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q111" s="25" t="s">
+      <c r="Q111" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="R111" s="25">
+      <c r="R111" s="24">
         <v>3.1026000000000001E-2</v>
       </c>
-      <c r="S111" s="25">
+      <c r="S111" s="24">
         <v>10</v>
       </c>
-      <c r="T111" s="25">
+      <c r="T111" s="24">
         <v>19</v>
       </c>
-      <c r="U111" s="25">
+      <c r="U111" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>2009</v>
       </c>
@@ -8651,33 +8780,33 @@
       <c r="C112">
         <v>0</v>
       </c>
-      <c r="G112" s="28">
+      <c r="G112" s="27">
         <v>43756</v>
       </c>
-      <c r="H112" s="29">
+      <c r="H112" s="28">
         <v>2019</v>
       </c>
-      <c r="I112" s="30">
+      <c r="I112" s="29">
         <v>240000</v>
       </c>
-      <c r="J112" s="29">
+      <c r="J112" s="28">
         <v>4</v>
       </c>
-      <c r="K112" s="29">
+      <c r="K112" s="28">
         <v>60000</v>
       </c>
-      <c r="L112" s="23"/>
-      <c r="M112" s="23"/>
-      <c r="N112" s="23"/>
-      <c r="O112" s="23"/>
-      <c r="P112" s="23"/>
-      <c r="Q112" s="23"/>
-      <c r="R112" s="23"/>
-      <c r="S112" s="23"/>
-      <c r="T112" s="23"/>
-      <c r="U112" s="23"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="22"/>
+      <c r="Q112" s="22"/>
+      <c r="R112" s="22"/>
+      <c r="S112" s="22"/>
+      <c r="T112" s="22"/>
+      <c r="U112" s="22"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>2009</v>
       </c>
@@ -8688,7 +8817,7 @@
         <v>135169</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>2009</v>
       </c>
@@ -8699,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>2009</v>
       </c>
@@ -8710,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>2009</v>
       </c>
@@ -8721,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>2009</v>
       </c>
@@ -8732,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>2009</v>
       </c>
@@ -8743,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>2009</v>
       </c>
@@ -8754,7 +8883,7 @@
         <v>278189</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>2009</v>
       </c>
@@ -8765,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>2009</v>
       </c>
@@ -8776,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>2010</v>
       </c>
@@ -8787,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>2010</v>
       </c>
@@ -8798,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>2010</v>
       </c>
@@ -8809,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>2010</v>
       </c>
@@ -8820,7 +8949,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>2010</v>
       </c>
@@ -8831,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>2010</v>
       </c>
@@ -8842,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>2010</v>
       </c>
@@ -8853,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>2010</v>
       </c>
@@ -8864,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>2010</v>
       </c>
@@ -8875,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>2010</v>
       </c>
@@ -8886,7 +9015,7 @@
         <v>117929</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>2010</v>
       </c>
@@ -8897,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>2010</v>
       </c>
@@ -8908,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>2011</v>
       </c>
@@ -8919,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>2011</v>
       </c>
@@ -8930,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>2011</v>
       </c>
@@ -8941,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>2011</v>
       </c>
@@ -8952,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>2011</v>
       </c>
@@ -8963,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>2011</v>
       </c>
@@ -8974,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>2011</v>
       </c>
@@ -8985,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>2011</v>
       </c>
@@ -8996,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>2011</v>
       </c>
@@ -9007,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>2011</v>
       </c>
@@ -9018,7 +9147,7 @@
         <v>153024</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>2011</v>
       </c>
@@ -9029,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>2011</v>
       </c>
@@ -9040,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>2012</v>
       </c>
@@ -9051,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>2012</v>
       </c>
@@ -9062,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>2012</v>
       </c>
@@ -9073,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>2012</v>
       </c>
@@ -9084,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>2012</v>
       </c>
@@ -9095,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>2012</v>
       </c>
@@ -9106,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>2012</v>
       </c>
@@ -9117,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>2012</v>
       </c>
@@ -9128,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>2012</v>
       </c>
@@ -9139,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>2012</v>
       </c>
@@ -9150,7 +9279,7 @@
         <v>84252</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>2012</v>
       </c>
@@ -9161,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>2012</v>
       </c>
@@ -9172,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>2013</v>
       </c>
@@ -9183,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>2013</v>
       </c>
@@ -9194,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>2013</v>
       </c>
@@ -9205,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>2013</v>
       </c>
@@ -9216,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>2013</v>
       </c>
@@ -9227,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>2013</v>
       </c>
@@ -9238,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>2013</v>
       </c>
@@ -9249,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>2013</v>
       </c>
@@ -9260,7 +9389,7 @@
         <v>151878</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>2013</v>
       </c>
@@ -9271,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>2013</v>
       </c>
@@ -9282,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>2013</v>
       </c>
@@ -9293,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>2013</v>
       </c>
@@ -9304,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>2014</v>
       </c>
@@ -9315,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>2014</v>
       </c>
@@ -9326,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>2014</v>
       </c>
@@ -9337,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>2014</v>
       </c>
@@ -9348,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>2014</v>
       </c>
@@ -9359,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>2014</v>
       </c>
@@ -9370,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>2014</v>
       </c>
@@ -9381,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>2014</v>
       </c>
@@ -9392,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>2014</v>
       </c>
@@ -9403,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>2014</v>
       </c>
@@ -9414,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>2014</v>
       </c>
@@ -9425,7 +9554,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>2014</v>
       </c>
@@ -9436,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>2015</v>
       </c>
@@ -9447,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>2015</v>
       </c>
@@ -9458,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>2015</v>
       </c>
@@ -9469,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>2015</v>
       </c>
@@ -9480,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>2015</v>
       </c>
@@ -9491,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>2015</v>
       </c>
@@ -9502,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>2015</v>
       </c>
@@ -9513,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>2015</v>
       </c>
@@ -9524,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>2015</v>
       </c>
@@ -9535,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>2015</v>
       </c>
@@ -9546,7 +9675,7 @@
         <v>167800</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>2015</v>
       </c>
@@ -9557,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>2015</v>
       </c>
@@ -9568,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>2016</v>
       </c>
@@ -9579,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>2016</v>
       </c>
@@ -9590,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>2016</v>
       </c>
@@ -9601,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>2016</v>
       </c>
@@ -9612,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>2016</v>
       </c>
@@ -9623,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>2016</v>
       </c>
@@ -9634,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>2016</v>
       </c>
@@ -9645,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>2016</v>
       </c>
@@ -9656,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>2016</v>
       </c>
@@ -9667,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>2016</v>
       </c>
@@ -9678,7 +9807,7 @@
         <v>170210</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>2016</v>
       </c>
@@ -9689,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>2016</v>
       </c>
@@ -9700,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>2017</v>
       </c>
@@ -9711,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>2017</v>
       </c>
@@ -9722,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>2017</v>
       </c>
@@ -9733,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>2017</v>
       </c>
@@ -9744,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>2017</v>
       </c>
@@ -9755,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>2017</v>
       </c>
@@ -9766,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>2017</v>
       </c>
@@ -9777,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>2017</v>
       </c>
@@ -9788,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>2017</v>
       </c>
@@ -9799,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>2017</v>
       </c>
@@ -9810,7 +9939,7 @@
         <v>222864</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>2017</v>
       </c>
@@ -9821,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>2017</v>
       </c>
@@ -9832,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>2018</v>
       </c>
@@ -9843,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>2018</v>
       </c>
@@ -9854,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>2018</v>
       </c>
@@ -9865,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>2018</v>
       </c>
@@ -9876,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>2018</v>
       </c>
@@ -9887,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>2018</v>
       </c>
@@ -9898,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>2018</v>
       </c>
@@ -9909,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>2018</v>
       </c>
@@ -9920,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>2018</v>
       </c>
@@ -9931,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>2018</v>
       </c>
@@ -9942,7 +10071,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>2018</v>
       </c>
@@ -9953,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>2018</v>
       </c>
@@ -9964,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>2019</v>
       </c>
@@ -9975,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>2019</v>
       </c>
@@ -9986,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>2019</v>
       </c>
@@ -9997,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>2019</v>
       </c>
@@ -10008,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>2019</v>
       </c>
@@ -10019,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>2019</v>
       </c>
@@ -10030,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>2019</v>
       </c>
@@ -10041,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>2019</v>
       </c>
@@ -10052,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>2019</v>
       </c>
@@ -10063,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>2019</v>
       </c>
@@ -10074,7 +10203,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>2019</v>
       </c>
@@ -10085,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>2019</v>
       </c>
@@ -10103,47 +10232,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="31">
         <v>2000</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31">
         <v>2005</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31">
         <v>2010</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31">
         <v>2015</v>
       </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -10169,7 +10298,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -10195,7 +10324,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -10221,7 +10350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -10247,7 +10376,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -10273,7 +10402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -10299,7 +10428,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -10325,7 +10454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -10351,7 +10480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -10377,7 +10506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -10403,7 +10532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -10429,7 +10558,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -10455,7 +10584,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -10481,7 +10610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -10507,7 +10636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -10548,31 +10677,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -10580,7 +10709,7 @@
         <v>0.6283522296983205</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -10588,7 +10717,7 @@
         <v>0.39482652456685086</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -10596,7 +10725,7 @@
         <v>0.36120577593167591</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -10604,7 +10733,7 @@
         <v>56658.581794972612</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -10612,12 +10741,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>35</v>
@@ -10635,7 +10764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -10655,7 +10784,7 @@
         <v>3.0069619827373401E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -10671,7 +10800,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -10685,8 +10814,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>40</v>
@@ -10713,7 +10842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -10742,7 +10871,7 @@
         <v>147184.93859921824</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -10771,13 +10900,13 @@
         <v>21300.543863634379</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -10791,7 +10920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -10805,7 +10934,7 @@
         <v>-0.61034101297569676</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -10819,7 +10948,7 @@
         <v>0.42854723033903425</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -10833,7 +10962,7 @@
         <v>-0.2211296526722096</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -10847,7 +10976,7 @@
         <v>-1.517291377085487</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -10861,7 +10990,7 @@
         <v>-1.9640756999757973</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -10875,7 +11004,7 @@
         <v>1.1175187936418201</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>7</v>
       </c>
@@ -10889,7 +11018,7 @@
         <v>1.728227394259652</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>8</v>
       </c>
@@ -10903,7 +11032,7 @@
         <v>0.71755145844580026</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>9</v>
       </c>
@@ -10917,7 +11046,7 @@
         <v>-0.87001284261381773</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -10931,7 +11060,7 @@
         <v>0.10696859935558606</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>11</v>
       </c>
@@ -10945,7 +11074,7 @@
         <v>1.0242415276428853</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>12</v>
       </c>
@@ -10959,7 +11088,7 @@
         <v>1.3238002942581711E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>13</v>
       </c>
@@ -10973,7 +11102,7 @@
         <v>-0.44509658340405817</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>14</v>
       </c>
@@ -10987,7 +11116,7 @@
         <v>0.19128865186666874</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>15</v>
       </c>
@@ -11001,7 +11130,7 @@
         <v>-0.81632038837142928</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>16</v>
       </c>
@@ -11015,7 +11144,7 @@
         <v>0.40995651490305934</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>17</v>
       </c>
@@ -11029,7 +11158,7 @@
         <v>-1.4736857552052913</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>18</v>
       </c>
@@ -11043,7 +11172,7 @@
         <v>0.21977653058095561</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>19</v>
       </c>
@@ -11057,7 +11186,7 @@
         <v>0.50292611171458756</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>20</v>
       </c>
